--- a/Excel/悖论模拟干员名单20240502用户版.xlsx
+++ b/Excel/悖论模拟干员名单20240502用户版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C48E3A-FCD9-458A-BFBB-DF56D5AF5EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD18E508-D8D0-401D-8573-A2326B68C4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="3015" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="2790" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="543">
   <si>
     <t>先锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1053,24 +1053,12 @@
     <t>阿斯卡纶</t>
   </si>
   <si>
-    <t>maa://21245, *maa://22744</t>
-  </si>
-  <si>
     <t>maa://21955</t>
   </si>
   <si>
     <t>maa://22765, *maa://21915</t>
   </si>
   <si>
-    <t>maa://30766</t>
-  </si>
-  <si>
-    <t>*maa://30764</t>
-  </si>
-  <si>
-    <t>maa://21441</t>
-  </si>
-  <si>
     <t>*maa://21624</t>
   </si>
   <si>
@@ -1164,9 +1152,6 @@
     <t>maa://22762</t>
   </si>
   <si>
-    <t>maa://26245, maa://21288</t>
-  </si>
-  <si>
     <t>*maa://21334</t>
   </si>
   <si>
@@ -1179,9 +1164,6 @@
     <t>maa://31731</t>
   </si>
   <si>
-    <t>maa://27127, maa://22751</t>
-  </si>
-  <si>
     <t>maa://28071</t>
   </si>
   <si>
@@ -1200,9 +1182,6 @@
     <t>maa://22750</t>
   </si>
   <si>
-    <t>maa://32931, *maa://21916, maa://23252, *maa://22759</t>
-  </si>
-  <si>
     <t>*maa://22736</t>
   </si>
   <si>
@@ -1218,9 +1197,6 @@
     <t>maa://24382</t>
   </si>
   <si>
-    <t>*maa://30968</t>
-  </si>
-  <si>
     <t>maa://21442</t>
   </si>
   <si>
@@ -1275,9 +1251,6 @@
     <t>*maa://29765, maa://23263</t>
   </si>
   <si>
-    <t>maa://32940, maa://24388</t>
-  </si>
-  <si>
     <t>maa://30711, maa://30768</t>
   </si>
   <si>
@@ -1332,9 +1305,6 @@
     <t>maa://24389</t>
   </si>
   <si>
-    <t>maa://21246</t>
-  </si>
-  <si>
     <t>maa://24390</t>
   </si>
   <si>
@@ -1347,9 +1317,6 @@
     <t>maa://29912, maa://22516, *maa://20794</t>
   </si>
   <si>
-    <t>maa://23669</t>
-  </si>
-  <si>
     <t>maa://24392</t>
   </si>
   <si>
@@ -1368,9 +1335,6 @@
     <t>maa://29652</t>
   </si>
   <si>
-    <t>maa://25251</t>
-  </si>
-  <si>
     <t>*maa://21289</t>
   </si>
   <si>
@@ -1390,9 +1354,6 @@
   </si>
   <si>
     <t>maa://31489</t>
-  </si>
-  <si>
-    <t>maa://24621, maa://20108, maa://22771</t>
   </si>
   <si>
     <t>*maa://32650</t>
@@ -1430,15 +1391,9 @@
     <t>**maa://35616</t>
   </si>
   <si>
-    <t>maa://24617, **maa://20790</t>
-  </si>
-  <si>
     <t>maa://32509, *maa://31008, *maa://27295, maa://22754, *maa://21746</t>
   </si>
   <si>
-    <t>**maa://22866, maa://26222</t>
-  </si>
-  <si>
     <t>maa://27395, maa://22755, **maa://22756</t>
   </si>
   <si>
@@ -1460,15 +1415,9 @@
     <t>maa://29863, **maa://26013</t>
   </si>
   <si>
-    <t>maa://28711, **maa://27377, ***maa://25174</t>
-  </si>
-  <si>
     <t>maa://24632, **maa://24303, maa://22746, maa://22499</t>
   </si>
   <si>
-    <t>**maa://28036</t>
-  </si>
-  <si>
     <t>maa://32651, *maa://30769</t>
   </si>
   <si>
@@ -1481,45 +1430,27 @@
     <t>*maa://25175, maa://24379</t>
   </si>
   <si>
-    <t>maa://21895, **maa://20793</t>
-  </si>
-  <si>
     <t>maa://30807, maa://21229</t>
   </si>
   <si>
     <t>maa://24378</t>
   </si>
   <si>
-    <t>maa://35926, maa://36258</t>
-  </si>
-  <si>
     <t>maa://21249, maa://28624, maa://26254, **maa://24303</t>
   </si>
   <si>
     <t>maa://28624, maa://21919, maa://21281</t>
   </si>
   <si>
-    <t>maa://28977, *maa://23264, maa://22762</t>
-  </si>
-  <si>
     <t>maa://24762, maa://28504</t>
   </si>
   <si>
-    <t>maa://21280, maa://29863, **maa://26013, maa://24379, maa://24380, *maa://21239</t>
-  </si>
-  <si>
     <t>maa://28502</t>
   </si>
   <si>
     <t>maa://21282, maa://22301</t>
   </si>
   <si>
-    <t>maa://29988, maa://31400, maa://23504, *maa://25141, **maa://22892, ***maa://22815</t>
-  </si>
-  <si>
-    <t>*maa://32495, *maa://21443, ***maa://23820</t>
-  </si>
-  <si>
     <t>maa://31215, maa://24516, maa://26001</t>
   </si>
   <si>
@@ -1529,9 +1460,6 @@
     <t>*maa://25021, *maa://22733</t>
   </si>
   <si>
-    <t>**maa://29784, *maa://24313</t>
-  </si>
-  <si>
     <t>maa://20110, *maa://21663</t>
   </si>
   <si>
@@ -1544,9 +1472,6 @@
     <t>2024.04.30更新：修复关卡名包含干员名时导致的搜素错误</t>
   </si>
   <si>
-    <t>maa://24702, maa://25390, maa://34787</t>
-  </si>
-  <si>
     <t>maa://36673, maa://24999, *maa://21476</t>
   </si>
   <si>
@@ -1556,66 +1481,24 @@
     <t>maa://36673, maa://24999, maa://25001</t>
   </si>
   <si>
-    <t>***maa://36048, *maa://30808, *maa://22743, maa://22734</t>
-  </si>
-  <si>
-    <t>maa://25198, maa://21432, **maa://20795</t>
-  </si>
-  <si>
     <t>历阵锐枪芬</t>
   </si>
   <si>
     <t>maa://36660, *maa://36701, maa://21867</t>
   </si>
   <si>
-    <t>maa://22864, *maa://21956, maa://22730</t>
-  </si>
-  <si>
-    <t>maa://25236, **maa://22735, **maa://21678</t>
-  </si>
-  <si>
     <t>maa://32721, **maa://24373</t>
   </si>
   <si>
-    <t>maa://36670, maa://30434, maa://25199, maa://30711, maa://30768, maa://21291</t>
-  </si>
-  <si>
-    <t>*maa://30515, maa://34787, *maa://24633, ***maa://29083</t>
-  </si>
-  <si>
     <t>*maa://22880, maa://20276, *maa://22749</t>
   </si>
   <si>
-    <t>maa://36674, *maa://28648, maa://21287</t>
-  </si>
-  <si>
-    <t>maa://22466, **maa://22732, **maa://30050, *maa://23168</t>
-  </si>
-  <si>
-    <t>*maa://28440, maa://28432, maa://31400, maa://25198, maa://21432, *maa://28650</t>
-  </si>
-  <si>
-    <t>*maa://30515, maa://34787, maa://24526, *maa://24633, maa://24762, ***maa://29083, *maa://22727</t>
-  </si>
-  <si>
-    <t>maa://31270, maa://27746, *maa://23890, *maa://24940</t>
-  </si>
-  <si>
     <t>maa://36664, maa://23278, maa://21386</t>
   </si>
   <si>
-    <t>**maa://36236</t>
-  </si>
-  <si>
     <t>维什戴尔</t>
   </si>
   <si>
-    <t>maa://22521, *maa://22471</t>
-  </si>
-  <si>
-    <t>maa://36674, *maa://28648, maa://22729</t>
-  </si>
-  <si>
     <t>maa://20109, maa://22466, maa://22545</t>
   </si>
   <si>
@@ -1628,41 +1511,167 @@
     <t>maa://36713</t>
   </si>
   <si>
-    <t>**maa://35616, maa://21442, maa://23250, maa://25389, maa://20107, maa://22772, **maa://22745</t>
-  </si>
-  <si>
-    <t>maa://36668, *maa://30709</t>
-  </si>
-  <si>
     <t>魔王</t>
   </si>
   <si>
     <t>PhonoR-0</t>
   </si>
   <si>
-    <t>maa://36671, *maa://26191</t>
-  </si>
-  <si>
-    <t>maa://36697, *maa://30062, maa://22676, *maa://20106, *maa://28932, *maa://22769</t>
-  </si>
-  <si>
     <t>maa://36666, maa://21364, *maa://22766</t>
   </si>
   <si>
-    <t>maa://21895, *maa://23911, *maa://21916, *maa://21956, maa://21917, maa://27755, maa://21919, *maa://21915, maa://21955</t>
-  </si>
-  <si>
-    <t>maa://36672, maa://29910, maa://22523, **maa://21440</t>
-  </si>
-  <si>
     <t>maa://36660, *maa://36701</t>
   </si>
   <si>
     <t>maa://36697</t>
   </si>
   <si>
-    <t>更新日期：2024.05.02</t>
+    <t>更新日期：2024.05.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maa://36681, maa://34787, maa://24702, maa://25390</t>
+  </si>
+  <si>
+    <t>maa://36987</t>
+  </si>
+  <si>
+    <t>maa://21245, maa://22744</t>
+  </si>
+  <si>
+    <t>**maa://36678, maa://30766</t>
+  </si>
+  <si>
+    <t>maa://30764</t>
+  </si>
+  <si>
+    <t>*maa://30808, maa://22734, *maa://22743</t>
+  </si>
+  <si>
+    <t>maa://36679, maa://21441</t>
+  </si>
+  <si>
+    <t>maa://36680, maa://21432, maa://25198, **maa://20795</t>
+  </si>
+  <si>
+    <t>***maa://28036</t>
+  </si>
+  <si>
+    <t>*maa://21956, maa://22864, maa://22730</t>
+  </si>
+  <si>
+    <t>maa://25236, **maa://21678, **maa://22735</t>
+  </si>
+  <si>
+    <t>maa://36667, maa://21895, **maa://20793</t>
+  </si>
+  <si>
+    <t>maa://36670, maa://30434, maa://30711, maa://25199, maa://30768, maa://21291</t>
+  </si>
+  <si>
+    <t>maa://34787, *maa://30515, *maa://24633, ***maa://29083</t>
+  </si>
+  <si>
+    <t>*maa://36674, *maa://28648, maa://21287</t>
+  </si>
+  <si>
+    <t>maa://36682, maa://26245, maa://21288</t>
+  </si>
+  <si>
+    <t>maa://22466, *maa://22732, **maa://30050, *maa://23168</t>
+  </si>
+  <si>
+    <t>maa://27127, *maa://22751</t>
+  </si>
+  <si>
+    <t>maa://36680, *maa://28440, maa://28432, maa://31400, maa://21432, maa://25198, *maa://28650</t>
+  </si>
+  <si>
+    <t>maa://35926, *maa://36258</t>
+  </si>
+  <si>
+    <t>maa://32931, *maa://21916, maa://23252, **maa://22759</t>
+  </si>
+  <si>
+    <t>maa://36669, maa://28977, maa://22762, *maa://23264</t>
+  </si>
+  <si>
+    <t>maa://34787, maa://24526, *maa://30515, maa://24762, *maa://24633, ***maa://29083, *maa://22727</t>
+  </si>
+  <si>
+    <t>maa://31270, maa://27746, maa://23890, *maa://24940</t>
+  </si>
+  <si>
+    <t>maa://21280, maa://29863, maa://24379, **maa://26013, maa://24380, *maa://21239</t>
+  </si>
+  <si>
+    <t>maa://37442</t>
+  </si>
+  <si>
+    <t>**maa://30968</t>
+  </si>
+  <si>
+    <t>***maa://36236</t>
+  </si>
+  <si>
+    <t>**maa://36237</t>
+  </si>
+  <si>
+    <t>*maa://32940, maa://24388</t>
+  </si>
+  <si>
+    <t>**maa://37170, maa://24617, **maa://20790</t>
+  </si>
+  <si>
+    <t>maa://26222, **maa://22866</t>
+  </si>
+  <si>
+    <t>*maa://22471, maa://22521</t>
+  </si>
+  <si>
+    <t>*maa://36674, *maa://28648, maa://22729</t>
+  </si>
+  <si>
+    <t>maa://36663, maa://29988, maa://31400, *maa://25141, maa://23504, **maa://22892, ***maa://22815</t>
+  </si>
+  <si>
+    <t>maa://36684, maa://21246</t>
+  </si>
+  <si>
+    <t>maa://21442, maa://23250, **maa://35616, maa://25389, maa://20107, maa://22772, **maa://22745</t>
+  </si>
+  <si>
+    <t>maa://28711, ***maa://25174, **maa://27377</t>
+  </si>
+  <si>
+    <t>maa://36677, maa://23669</t>
+  </si>
+  <si>
+    <t>**maa://36668, *maa://30709</t>
+  </si>
+  <si>
+    <t>*maa://21443, **maa://32495, ***maa://23820</t>
+  </si>
+  <si>
+    <t>**maa://36675, maa://25251</t>
+  </si>
+  <si>
+    <t>*maa://36671, *maa://26191</t>
+  </si>
+  <si>
+    <t>maa://36697, *maa://30062, *maa://28932, maa://22676, *maa://20106, *maa://22769</t>
+  </si>
+  <si>
+    <t>maa://36667, maa://21895, *maa://21956, maa://27755, maa://21917, *maa://21916, *maa://23911, maa://21919, *maa://21915, maa://21955</t>
+  </si>
+  <si>
+    <t>*maa://29784, *maa://24313</t>
+  </si>
+  <si>
+    <t>maa://36672, maa://22523, maa://29910, **maa://21440</t>
+  </si>
+  <si>
+    <t>maa://36676, maa://24621, maa://20108, maa://22771</t>
   </si>
 </sst>
 </file>
@@ -2027,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:C46"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2146,10 +2155,10 @@
         <v>40</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -2167,7 +2176,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>157</v>
@@ -2185,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>12</v>
@@ -2200,19 +2209,19 @@
         <v>268</v>
       </c>
       <c r="Z2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>430</v>
+        <v>530</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>295</v>
       </c>
       <c r="AD2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>442</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -2220,10 +2229,10 @@
         <v>41</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>496</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>68</v>
@@ -2232,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>126</v>
@@ -2241,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>158</v>
@@ -2250,16 +2259,16 @@
         <v>4</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>204</v>
       </c>
       <c r="R3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>243</v>
@@ -2268,7 +2277,7 @@
         <v>4</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>269</v>
@@ -2277,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>296</v>
@@ -2286,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -2297,7 +2306,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>69</v>
@@ -2333,7 +2342,7 @@
         <v>5</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>244</v>
@@ -2351,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>297</v>
@@ -2360,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -2371,7 +2380,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>337</v>
+        <v>497</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>70</v>
@@ -2389,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>160</v>
@@ -2398,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>206</v>
@@ -2416,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>271</v>
@@ -2425,7 +2434,7 @@
         <v>2</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>298</v>
@@ -2454,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>129</v>
@@ -2463,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>161</v>
@@ -2472,7 +2481,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>207</v>
@@ -2480,9 +2489,6 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="U6" s="1" t="s">
         <v>246</v>
       </c>
@@ -2499,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>299</v>
@@ -2508,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -2519,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>72</v>
@@ -2537,7 +2543,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>162</v>
@@ -2546,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>208</v>
@@ -2555,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>247</v>
@@ -2564,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>273</v>
@@ -2582,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
@@ -2593,7 +2599,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>73</v>
@@ -2602,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>131</v>
@@ -2620,7 +2626,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>386</v>
+        <v>515</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>209</v>
@@ -2638,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>274</v>
@@ -2647,7 +2653,7 @@
         <v>7</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>301</v>
@@ -2656,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -2667,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>74</v>
@@ -2685,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>164</v>
@@ -2694,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>210</v>
@@ -2703,7 +2709,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>464</v>
+        <v>526</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>249</v>
@@ -2712,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>275</v>
@@ -2721,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>302</v>
@@ -2730,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
@@ -2741,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>75</v>
@@ -2750,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>133</v>
@@ -2759,16 +2765,16 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>165</v>
       </c>
       <c r="N10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>211</v>
@@ -2777,7 +2783,7 @@
         <v>3</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>250</v>
@@ -2786,7 +2792,7 @@
         <v>2</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>276</v>
@@ -2795,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>303</v>
@@ -2804,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -2815,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>76</v>
@@ -2833,7 +2839,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>166</v>
@@ -2851,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>251</v>
@@ -2860,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>277</v>
@@ -2869,7 +2875,7 @@
         <v>3</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>304</v>
@@ -2878,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
@@ -2886,10 +2892,10 @@
         <v>50</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>340</v>
+        <v>498</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>77</v>
@@ -2898,7 +2904,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>507</v>
+        <v>480</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>135</v>
@@ -2934,16 +2940,16 @@
         <v>2</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>278</v>
       </c>
       <c r="Z12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>435</v>
+        <v>533</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>305</v>
@@ -2952,7 +2958,7 @@
         <v>6</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -2963,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>78</v>
@@ -2972,7 +2978,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>136</v>
@@ -2990,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>214</v>
@@ -2999,7 +3005,7 @@
         <v>2</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>253</v>
@@ -3008,7 +3014,7 @@
         <v>2</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>279</v>
@@ -3017,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>306</v>
@@ -3026,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -3037,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>341</v>
+        <v>499</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>79</v>
@@ -3046,16 +3052,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>374</v>
+        <v>510</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>169</v>
@@ -3064,7 +3070,7 @@
         <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>215</v>
@@ -3073,7 +3079,7 @@
         <v>2</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>254</v>
@@ -3081,9 +3087,6 @@
       <c r="V14" s="1">
         <v>0</v>
       </c>
-      <c r="W14" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="Y14" s="1" t="s">
         <v>280</v>
       </c>
@@ -3091,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>307</v>
@@ -3108,10 +3111,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>80</v>
@@ -3120,7 +3123,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>138</v>
@@ -3129,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>170</v>
@@ -3147,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>255</v>
@@ -3174,7 +3177,7 @@
         <v>3</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>534</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
@@ -3182,10 +3185,10 @@
         <v>54</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>342</v>
+        <v>501</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>81</v>
@@ -3203,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>171</v>
@@ -3212,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>217</v>
@@ -3221,7 +3224,7 @@
         <v>3</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>256</v>
@@ -3230,7 +3233,7 @@
         <v>2</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>282</v>
@@ -3239,16 +3242,16 @@
         <v>1</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>309</v>
       </c>
       <c r="AD16" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -3259,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>82</v>
@@ -3268,7 +3271,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>140</v>
@@ -3277,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>172</v>
@@ -3333,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>83</v>
@@ -3342,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>141</v>
@@ -3351,7 +3354,7 @@
         <v>4</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>173</v>
@@ -3360,7 +3363,7 @@
         <v>6</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>487</v>
+        <v>519</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>219</v>
@@ -3369,7 +3372,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>258</v>
@@ -3378,7 +3381,7 @@
         <v>2</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>284</v>
@@ -3387,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>311</v>
@@ -3396,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>495</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -3443,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>259</v>
@@ -3452,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>285</v>
@@ -3461,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>312</v>
@@ -3470,7 +3473,7 @@
         <v>2</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
@@ -3478,10 +3481,10 @@
         <v>58</v>
       </c>
       <c r="B20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>85</v>
@@ -3490,7 +3493,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>143</v>
@@ -3505,10 +3508,10 @@
         <v>175</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>66</v>
+        <v>520</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>221</v>
@@ -3517,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>260</v>
@@ -3555,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>86</v>
@@ -3564,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>144</v>
@@ -3573,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>176</v>
@@ -3582,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>222</v>
@@ -3591,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>261</v>
@@ -3600,7 +3603,7 @@
         <v>2</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>287</v>
@@ -3609,7 +3612,7 @@
         <v>3</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>314</v>
@@ -3618,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
@@ -3638,7 +3641,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>145</v>
@@ -3647,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>379</v>
+        <v>512</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>177</v>
@@ -3671,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>288</v>
@@ -3680,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>315</v>
@@ -3689,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -3700,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>88</v>
@@ -3727,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>224</v>
@@ -3736,7 +3739,7 @@
         <v>2</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>263</v>
@@ -3745,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>289</v>
@@ -3754,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>316</v>
@@ -3763,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
@@ -3774,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>89</v>
@@ -3816,10 +3819,10 @@
         <v>264</v>
       </c>
       <c r="V24" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>290</v>
@@ -3837,7 +3840,7 @@
         <v>4</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -3848,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>90</v>
@@ -3857,7 +3860,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>148</v>
@@ -3866,7 +3869,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>180</v>
@@ -3875,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>226</v>
@@ -3884,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>265</v>
@@ -3893,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>291</v>
@@ -3902,16 +3905,16 @@
         <v>3</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>318</v>
       </c>
       <c r="AD25" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>450</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
@@ -3931,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>149</v>
@@ -3949,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>392</v>
+        <v>521</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>227</v>
@@ -3967,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>292</v>
@@ -3985,7 +3988,7 @@
         <v>2</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -4005,7 +4008,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>150</v>
@@ -4014,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>182</v>
@@ -4032,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>267</v>
@@ -4059,7 +4062,7 @@
         <v>2</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
@@ -4070,7 +4073,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>93</v>
@@ -4088,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>183</v>
@@ -4106,7 +4109,7 @@
         <v>2</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>18</v>
@@ -4133,7 +4136,7 @@
         <v>2</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>537</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -4144,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>94</v>
@@ -4153,16 +4156,16 @@
         <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>152</v>
       </c>
       <c r="J29" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>184</v>
@@ -4171,7 +4174,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>230</v>
@@ -4180,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>23</v>
@@ -4207,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
@@ -4236,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>185</v>
@@ -4245,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>231</v>
@@ -4254,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>411</v>
+        <v>524</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>31</v>
@@ -4301,7 +4304,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>510</v>
+        <v>481</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>154</v>
@@ -4310,7 +4313,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>482</v>
+        <v>514</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>186</v>
@@ -4328,7 +4331,7 @@
         <v>2</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>37</v>
@@ -4351,7 +4354,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>326</v>
@@ -4363,10 +4366,10 @@
         <v>97</v>
       </c>
       <c r="F32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>155</v>
@@ -4375,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>187</v>
@@ -4384,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>233</v>
@@ -4396,7 +4399,7 @@
         <v>326</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>530</v>
+        <v>489</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>326</v>
@@ -4440,7 +4443,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>234</v>
@@ -4452,7 +4455,7 @@
         <v>66</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>531</v>
+        <v>490</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>326</v>
@@ -4505,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>20</v>
@@ -4514,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
@@ -4552,7 +4555,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>333</v>
@@ -4572,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>27</v>
@@ -4599,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>334</v>
@@ -4619,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>39</v>
@@ -4637,7 +4640,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>238</v>
@@ -4660,7 +4663,7 @@
     </row>
     <row r="38" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -4689,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>239</v>
@@ -4698,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>336</v>
@@ -4707,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>538</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4721,7 +4724,7 @@
         <v>6</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>194</v>
@@ -4730,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>240</v>
@@ -4764,7 +4767,7 @@
         <v>3</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>519</v>
+        <v>483</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>241</v>
@@ -4787,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>196</v>
@@ -4796,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>242</v>
@@ -4810,7 +4813,7 @@
     </row>
     <row r="42" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4830,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>22</v>
@@ -4853,7 +4856,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>198</v>
@@ -4885,7 +4888,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>199</v>
@@ -4908,7 +4911,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4919,13 +4922,16 @@
         <v>2</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>200</v>
       </c>
       <c r="N45" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>523</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>332</v>
@@ -4948,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>201</v>
@@ -4960,7 +4966,7 @@
         <v>326</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>326</v>
@@ -4971,7 +4977,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4982,7 +4988,7 @@
         <v>3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>202</v>
@@ -5065,10 +5071,10 @@
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>521</v>
+        <v>484</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>326</v>
@@ -5085,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53" spans="5:15" x14ac:dyDescent="0.2">
@@ -5096,7 +5102,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="5:15" x14ac:dyDescent="0.2">
@@ -5118,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="56" spans="5:15" x14ac:dyDescent="0.2">
@@ -5140,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="5:15" x14ac:dyDescent="0.2">
@@ -5162,7 +5168,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" spans="5:15" x14ac:dyDescent="0.2">
